--- a/tests/A02_pixell_test_plan_chequing_account.xlsx
+++ b/tests/A02_pixell_test_plan_chequing_account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>#VALUE!</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Developer:</t>
+  </si>
+  <si>
+    <t>Komalpreet Kaur</t>
   </si>
   <si>
     <t>Class Name:</t>
@@ -90,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +104,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -151,7 +160,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -418,85 +434,85 @@
   <cellXfs count="30">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -863,7 +879,9 @@
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -872,17 +890,17 @@
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1"/>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
@@ -891,127 +909,127 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="44.25" customFormat="1" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="46.5" customFormat="1" s="16">
       <c r="A7" s="17"/>
       <c r="B7" s="18">
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25" customFormat="1" s="16">
       <c r="A8" s="17"/>
       <c r="B8" s="21">
         <v>2</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25" customFormat="1" s="16">
       <c r="A9" s="17"/>
       <c r="B9" s="18">
         <v>3</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="23"/>
       <c r="G9" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="16">
       <c r="A10" s="17"/>
       <c r="B10" s="18">
         <v>4</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25" customFormat="1" s="16">
       <c r="A11" s="17"/>
       <c r="B11" s="21">
         <v>5</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25" customFormat="1" s="16">
       <c r="A12" s="17"/>
       <c r="B12" s="18">
         <v>6</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="16">
       <c r="A13" s="17"/>
       <c r="B13" s="18">
         <v>7</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="23"/>
@@ -1023,10 +1041,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="23"/>
@@ -1220,7 +1238,7 @@
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1"/>
       <c r="B32" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>

--- a/tests/A02_pixell_test_plan_chequing_account.xlsx
+++ b/tests/A02_pixell_test_plan_chequing_account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>#VALUE!</t>
   </si>
@@ -58,7 +58,13 @@
     <t>Attributes are set to input values (ensure to test for superclass and subclass attributes)</t>
   </si>
   <si>
-    <t>overdraft limit has invalid type.</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>account number has invalid type.</t>
   </si>
   <si>
     <t>overdraft rate has invalid type.</t>
@@ -431,15 +437,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -481,7 +487,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -491,6 +497,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -843,16 +852,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="29" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="29" width="32.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="29" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="29" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="29" width="48.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="29" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="30" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="30" width="32.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="30" width="31.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="30" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="30" width="48.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -874,7 +883,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
@@ -887,7 +896,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1"/>
       <c r="B4" s="10" t="s">
         <v>4</v>
@@ -930,7 +939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="46.5" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="87" customFormat="1" s="16">
       <c r="A7" s="17"/>
       <c r="B7" s="18">
         <v>1</v>
@@ -941,20 +950,26 @@
       <c r="D7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="E7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25" customFormat="1" s="16">
       <c r="A8" s="17"/>
-      <c r="B8" s="21">
+      <c r="B8" s="22">
         <v>2</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>14</v>
+      <c r="D8" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -965,14 +980,14 @@
       <c r="B9" s="18">
         <v>3</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>15</v>
+      <c r="D9" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="23"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="16">
@@ -980,251 +995,251 @@
       <c r="B10" s="18">
         <v>4</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25" customFormat="1" s="16">
       <c r="A11" s="17"/>
-      <c r="B11" s="21">
+      <c r="B11" s="22">
         <v>5</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>18</v>
+      <c r="C11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="20"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25" customFormat="1" s="16">
       <c r="A12" s="17"/>
       <c r="B12" s="18">
         <v>6</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="16">
       <c r="A13" s="17"/>
       <c r="B13" s="18">
         <v>7</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>20</v>
+      <c r="C13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="E13" s="20"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="58.5" customFormat="1" s="16">
       <c r="A14" s="17"/>
-      <c r="B14" s="21">
+      <c r="B14" s="22">
         <v>8</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>22</v>
+      <c r="C14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="20"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A15" s="17"/>
       <c r="B15" s="18">
         <v>9</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A16" s="17"/>
       <c r="B16" s="18">
         <v>10</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A17" s="17"/>
-      <c r="B17" s="21">
+      <c r="B17" s="22">
         <v>11</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A18" s="17"/>
       <c r="B18" s="18">
         <v>12</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A19" s="17"/>
       <c r="B19" s="18">
         <v>13</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A20" s="17"/>
-      <c r="B20" s="21">
+      <c r="B20" s="22">
         <v>14</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A21" s="17"/>
       <c r="B21" s="18">
         <v>15</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A22" s="17"/>
       <c r="B22" s="18">
         <v>16</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A23" s="17"/>
-      <c r="B23" s="21">
+      <c r="B23" s="22">
         <v>17</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A24" s="17"/>
       <c r="B24" s="18">
         <v>18</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A25" s="17"/>
       <c r="B25" s="18">
         <v>19</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A26" s="17"/>
-      <c r="B26" s="21">
+      <c r="B26" s="22">
         <v>20</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A27" s="17"/>
       <c r="B27" s="18">
         <v>21</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A28" s="17"/>
       <c r="B28" s="18">
         <v>22</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A29" s="17"/>
-      <c r="B29" s="21">
+      <c r="B29" s="22">
         <v>23</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
       <c r="A30" s="17"/>
       <c r="B30" s="18">
         <v>24</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1"/>
@@ -1237,14 +1252,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1"/>
-      <c r="B32" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="B32" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
